--- a/NMCI assets - Contractors.xlsx
+++ b/NMCI assets - Contractors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1fcf6788476cb0/Desktop/merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F9D28-7681-4DA6-9D4B-477D67BA7086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9A1F9D28-7681-4DA6-9D4B-477D67BA7086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF04DEC-0720-418D-AEDC-627CADF97310}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1245" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="315" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="289">
   <si>
     <t>spreadsheet  title:</t>
   </si>
@@ -786,12 +786,6 @@
     <t>HP Pro Desk 600 G1 TWR</t>
   </si>
   <si>
-    <t>First Name (sanitized)</t>
-  </si>
-  <si>
-    <t>Last Name (sani)</t>
-  </si>
-  <si>
     <t>111.222.3333</t>
   </si>
   <si>
@@ -855,12 +849,6 @@
     <t>Secure Host Baseline vxx.x.x(1111)</t>
   </si>
   <si>
-    <t>"System Model" (found by hitting the windows key and then typing system, and choosing "System Information") (sani)</t>
-  </si>
-  <si>
-    <t>Port (sani)</t>
-  </si>
-  <si>
     <t>person1</t>
   </si>
   <si>
@@ -931,6 +919,21 @@
   </si>
   <si>
     <t>person4.ctr@navy.mil</t>
+  </si>
+  <si>
+    <t>"System Model" (found by hitting the windows key and then typing system, and choosing "System Information")</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -2379,8 +2382,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="EmployeeID" dataDxfId="33" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Team" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Subteam" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="First Name (sanitized)" dataDxfId="30" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Last Name (sani)" dataDxfId="29" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="First Name" dataDxfId="30" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Last Name" dataDxfId="29" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DCPDS Employee Name" dataDxfId="28" dataCellStyle="Normal_Sheet2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Function (job title)" dataDxfId="27" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAO Shop Code" dataDxfId="26" dataCellStyle="Normal_E2C2"/>
@@ -2396,8 +2399,8 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Service ID (sani)" dataDxfId="16"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Asset Number (sani)" dataDxfId="15"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Machine Name" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="&quot;System Model&quot; (found by hitting the windows key and then typing system, and choosing &quot;System Information&quot;) (sani)" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Port (sani)" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="&quot;System Model&quot; (found by hitting the windows key and then typing system, and choosing &quot;System Information&quot;)" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Port" dataDxfId="12"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Additional PC assigned to user?" dataDxfId="11"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Scheduled for Tech Refresh?" dataDxfId="10"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Acrobat Pro" dataDxfId="9"/>
@@ -2747,10 +2750,10 @@
   </sheetPr>
   <dimension ref="A1:AH106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,10 +2792,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -2813,10 +2816,10 @@
         <v>16</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>17</v>
@@ -2831,19 +2834,19 @@
         <v>20</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>22</v>
@@ -2893,10 +2896,10 @@
         <v>131</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="39" t="s">
@@ -2909,10 +2912,10 @@
         <v>70</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>221</v>
@@ -2926,10 +2929,10 @@
       <c r="Q2" s="40"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U2" s="45" t="s">
         <v>222</v>
@@ -2971,10 +2974,10 @@
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="39" t="s">
@@ -2987,10 +2990,10 @@
         <v>70</v>
       </c>
       <c r="L3" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="M3" s="48" t="s">
         <v>241</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>243</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>221</v>
@@ -3007,10 +3010,10 @@
         <v>5123456789</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V3" s="45" t="s">
         <v>225</v>
@@ -3051,26 +3054,28 @@
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="49" t="s">
         <v>226</v>
       </c>
       <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="I4" s="41" t="s">
+        <v>288</v>
+      </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36" t="s">
         <v>70</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N4" s="36" t="s">
         <v>221</v>
@@ -3089,7 +3094,7 @@
         <v>5234567891</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U4" s="45" t="s">
         <v>228</v>
@@ -3133,10 +3138,10 @@
         <v>73</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="51" t="s">
@@ -3149,10 +3154,10 @@
         <v>70</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N5" s="36" t="s">
         <v>221</v>
@@ -3166,10 +3171,10 @@
       <c r="Q5" s="40"/>
       <c r="R5" s="45"/>
       <c r="S5" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U5" s="45" t="s">
         <v>231</v>
@@ -3213,10 +3218,10 @@
         <v>73</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="51" t="s">
@@ -3229,10 +3234,10 @@
         <v>70</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N6" s="36" t="s">
         <v>221</v>
@@ -3246,10 +3251,10 @@
       <c r="Q6" s="40"/>
       <c r="R6" s="45"/>
       <c r="S6" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U6" s="41" t="s">
         <v>231</v>
@@ -3293,10 +3298,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="49" t="s">
@@ -3309,10 +3314,10 @@
         <v>70</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>221</v>
@@ -3329,10 +3334,10 @@
         <v>5345678912</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V7" s="45">
         <v>123</v>
@@ -3375,10 +3380,10 @@
         <v>131</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="39" t="s">
@@ -3391,10 +3396,10 @@
         <v>70</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N8" s="36" t="s">
         <v>221</v>
@@ -3408,10 +3413,10 @@
       <c r="Q8" s="40"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U8" s="45" t="s">
         <v>233</v>
@@ -3457,10 +3462,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="51" t="s">
@@ -3473,10 +3478,10 @@
         <v>70</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M9" s="48" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N9" s="36" t="s">
         <v>234</v>
@@ -3493,7 +3498,7 @@
         <v>5456789123</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U9" s="45" t="s">
         <v>236</v>
@@ -3537,10 +3542,10 @@
         <v>73</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="51" t="s">
@@ -3553,10 +3558,10 @@
         <v>70</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>234</v>
